--- a/Univ/template/mo7asabi_Template.xlsx
+++ b/Univ/template/mo7asabi_Template.xlsx
@@ -439,9 +439,6 @@
     <xf numFmtId="39" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="39" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -514,6 +511,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="39" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -522,9 +522,6 @@
     </xf>
     <xf numFmtId="39" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="39" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -536,6 +533,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="39" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -543,15 +552,6 @@
     </xf>
     <xf numFmtId="39" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -15035,56 +15035,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="Q1" s="40" t="s">
+      <c r="Q1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="44"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="43"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="42" t="s">
+      <c r="L3" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="44"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="43"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="44"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="7"/>
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
@@ -15121,80 +15121,80 @@
       <c r="Z4" s="34"/>
     </row>
     <row r="5" spans="2:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="56">
+      <c r="B5" s="55">
         <v>268.39299999999997</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="58"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="61"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="60"/>
       <c r="K5" s="30"/>
-      <c r="L5" s="62" t="s">
+      <c r="L5" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="52" t="s">
+      <c r="M5" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="52" t="s">
+      <c r="N5" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="45" t="s">
+      <c r="O5" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="54" t="s">
+      <c r="P5" s="45"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="S5" s="45" t="s">
+      <c r="S5" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="46"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="48" t="s">
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="Z5" s="49"/>
+      <c r="Z5" s="48"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B6" s="33"/>
       <c r="C6" s="32"/>
       <c r="D6" s="31"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
       <c r="H6" s="29"/>
       <c r="I6" s="28"/>
       <c r="J6" s="27"/>
       <c r="K6" s="30"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
       <c r="O6" s="29"/>
       <c r="P6" s="28"/>
       <c r="Q6" s="27"/>
-      <c r="R6" s="55"/>
+      <c r="R6" s="54"/>
       <c r="S6" s="29"/>
       <c r="T6" s="28"/>
       <c r="U6" s="28"/>
       <c r="V6" s="28"/>
       <c r="W6" s="28"/>
       <c r="X6" s="27"/>
-      <c r="Y6" s="50"/>
-      <c r="Z6" s="51"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="50"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B7" s="10"/>
@@ -15224,60 +15224,60 @@
       <c r="Z7" s="26"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="63"/>
     </row>
     <row r="9" spans="2:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="39"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="63"/>
+      <c r="X9" s="63"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="63"/>
     </row>
     <row r="10" spans="2:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
@@ -15308,169 +15308,169 @@
     </row>
     <row r="11" spans="2:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7"/>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="39"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="63"/>
+      <c r="X11" s="63"/>
+      <c r="Y11" s="63"/>
+      <c r="Z11" s="63"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="63"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="63"/>
+      <c r="X12" s="63"/>
+      <c r="Y12" s="63"/>
+      <c r="Z12" s="63"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="39"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="63"/>
+      <c r="T13" s="63"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="63"/>
+      <c r="X13" s="63"/>
+      <c r="Y13" s="63"/>
+      <c r="Z13" s="63"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="39"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="63"/>
+      <c r="X14" s="63"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="63"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="39"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="63"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="63"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="39"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="63"/>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
@@ -15500,37 +15500,37 @@
       <c r="Z17" s="7"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="42" t="s">
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="42" t="s">
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="43"/>
-      <c r="X18" s="43"/>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="44"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="43"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B19" s="17"/>
@@ -15678,12 +15678,12 @@
         <v>8</v>
       </c>
       <c r="F23" s="9"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="70"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="69"/>
       <c r="M23" s="11"/>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
@@ -15748,12 +15748,12 @@
         <v>8</v>
       </c>
       <c r="F25" s="9"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="70"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="69"/>
       <c r="M25" s="11"/>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
@@ -15783,12 +15783,12 @@
         <v>8</v>
       </c>
       <c r="F26" s="9"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="70"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="69"/>
       <c r="M26" s="11"/>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
@@ -15818,12 +15818,12 @@
         <v>8</v>
       </c>
       <c r="F27" s="9"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="70"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="69"/>
       <c r="M27" s="11"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
@@ -15972,31 +15972,31 @@
       <c r="Z31" s="9"/>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B32" s="42"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="75"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="43"/>
-      <c r="T32" s="43"/>
-      <c r="U32" s="43"/>
-      <c r="V32" s="43"/>
-      <c r="W32" s="43"/>
-      <c r="X32" s="43"/>
-      <c r="Y32" s="43"/>
-      <c r="Z32" s="44"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="42"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="42"/>
+      <c r="W32" s="42"/>
+      <c r="X32" s="42"/>
+      <c r="Y32" s="42"/>
+      <c r="Z32" s="43"/>
     </row>
     <row r="33" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
@@ -16055,60 +16055,60 @@
       <c r="Z34" s="7"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="42" t="s">
+      <c r="C35" s="42"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="42" t="s">
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="43"/>
-      <c r="S35" s="43"/>
-      <c r="T35" s="44"/>
-      <c r="U35" s="42" t="s">
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="42"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="V35" s="43"/>
-      <c r="W35" s="43"/>
-      <c r="X35" s="43"/>
-      <c r="Y35" s="43"/>
-      <c r="Z35" s="44"/>
+      <c r="V35" s="42"/>
+      <c r="W35" s="42"/>
+      <c r="X35" s="42"/>
+      <c r="Y35" s="42"/>
+      <c r="Z35" s="43"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B36" s="77"/>
       <c r="C36" s="78"/>
       <c r="D36" s="79"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="75"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="72"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="72"/>
-      <c r="Q36" s="72"/>
-      <c r="R36" s="72"/>
-      <c r="S36" s="72"/>
-      <c r="T36" s="73"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="75"/>
+      <c r="O36" s="75"/>
+      <c r="P36" s="75"/>
+      <c r="Q36" s="75"/>
+      <c r="R36" s="75"/>
+      <c r="S36" s="75"/>
+      <c r="T36" s="76"/>
       <c r="U36" s="19"/>
       <c r="V36" s="19"/>
       <c r="W36" s="19"/>
@@ -16144,15 +16144,15 @@
       <c r="Z37" s="7"/>
     </row>
     <row r="38" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="44"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="43"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
@@ -16358,6 +16358,9 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="E13:Z14"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="G21:L21"/>
     <mergeCell ref="U35:Z35"/>
     <mergeCell ref="B38:H38"/>
     <mergeCell ref="B35:D35"/>
@@ -16366,20 +16369,11 @@
     <mergeCell ref="L36:T36"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="E36:K36"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="M18:Z18"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="C16:D16"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="G18:L18"/>
     <mergeCell ref="G23:L23"/>
     <mergeCell ref="G22:L22"/>
     <mergeCell ref="E15:Z16"/>
-    <mergeCell ref="E13:Z14"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="M5:M6"/>
     <mergeCell ref="E8:Z9"/>
     <mergeCell ref="G29:L29"/>
     <mergeCell ref="G30:L30"/>
@@ -16391,6 +16385,11 @@
     <mergeCell ref="G25:L25"/>
     <mergeCell ref="G28:L28"/>
     <mergeCell ref="E11:Z12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="M18:Z18"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="Q1:X1"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:J3"/>
@@ -16406,8 +16405,9 @@
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
